--- a/Code/Results/Cases/Case_1_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.792580882305404</v>
+        <v>4.237178492551396</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.095328994591418</v>
+        <v>7.416578437565548</v>
       </c>
       <c r="E2">
-        <v>11.25122977840771</v>
+        <v>10.14009417437717</v>
       </c>
       <c r="F2">
-        <v>45.12876210751383</v>
+        <v>40.64615495779413</v>
       </c>
       <c r="G2">
-        <v>2.078845235483064</v>
+        <v>3.685806719290623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.54271269747682</v>
+        <v>25.61414345103336</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.75015317850253</v>
+        <v>14.28495389079682</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.83275084252741</v>
+        <v>16.0924152573312</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.68234975887041</v>
+        <v>4.168288532743712</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.03712569447708</v>
+        <v>7.400255215415634</v>
       </c>
       <c r="E3">
-        <v>10.59026300079937</v>
+        <v>9.984895581274426</v>
       </c>
       <c r="F3">
-        <v>42.82116316097277</v>
+        <v>40.03323973719511</v>
       </c>
       <c r="G3">
-        <v>2.09143220433988</v>
+        <v>3.689995067957691</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.97097748210215</v>
+        <v>25.47230243231675</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.39685264408373</v>
+        <v>13.98794304434639</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.55756362764987</v>
+        <v>15.89257095372307</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.610506364314292</v>
+        <v>4.124031337052815</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.003549693904175</v>
+        <v>7.390623555279588</v>
       </c>
       <c r="E4">
-        <v>10.17649089111247</v>
+        <v>9.891372203056402</v>
       </c>
       <c r="F4">
-        <v>41.38446115250517</v>
+        <v>39.66115592446533</v>
       </c>
       <c r="G4">
-        <v>2.09929626003876</v>
+        <v>3.692696389444505</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.62500410886513</v>
+        <v>25.38702023837573</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.52721863977714</v>
+        <v>13.80812069075922</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.73872152643736</v>
+        <v>15.77409617897681</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.580218326552425</v>
+        <v>4.105510053816168</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.990371695965658</v>
+        <v>7.386796758811228</v>
       </c>
       <c r="E5">
-        <v>10.00596155327496</v>
+        <v>9.853750431163027</v>
       </c>
       <c r="F5">
-        <v>40.79438326338114</v>
+        <v>39.51076047170724</v>
       </c>
       <c r="G5">
-        <v>2.102539051401428</v>
+        <v>3.693829940469093</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.48528007889603</v>
+        <v>25.35273403173654</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.16286233798128</v>
+        <v>13.73560085840645</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.39579210359418</v>
+        <v>15.72693719770711</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.575128961349755</v>
+        <v>4.102405442583064</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.988212884670281</v>
+        <v>7.386167247791141</v>
       </c>
       <c r="E6">
-        <v>9.977532968470475</v>
+        <v>9.847534236354328</v>
       </c>
       <c r="F6">
-        <v>40.69613646569474</v>
+        <v>39.48586654257959</v>
       </c>
       <c r="G6">
-        <v>2.103079927732441</v>
+        <v>3.694020147218499</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.46215508136186</v>
+        <v>25.3470693762988</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.10175218315585</v>
+        <v>13.72360835137514</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.33828440234681</v>
+        <v>15.71917576054591</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.610101937816117</v>
+        <v>4.123783512151402</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.003369977524723</v>
+        <v>7.39057154843237</v>
       </c>
       <c r="E7">
-        <v>10.1741986806418</v>
+        <v>9.890862781063463</v>
       </c>
       <c r="F7">
-        <v>41.37652122565869</v>
+        <v>39.65912243775817</v>
       </c>
       <c r="G7">
-        <v>2.099339834039583</v>
+        <v>3.69271154416592</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.62311463860036</v>
+        <v>25.38655593651728</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.52234549084653</v>
+        <v>13.80713943064541</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.73413437374499</v>
+        <v>15.77345556696256</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.755458049734835</v>
+        <v>4.213835399396049</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.074787596999053</v>
+        <v>7.410869021174891</v>
       </c>
       <c r="E8">
-        <v>11.025010247974</v>
+        <v>10.08624172049441</v>
       </c>
       <c r="F8">
-        <v>44.33739878326354</v>
+        <v>40.43403859555357</v>
       </c>
       <c r="G8">
-        <v>2.083159624339947</v>
+        <v>3.68722403393939</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.34451384544979</v>
+        <v>25.56486877769344</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.29141608300975</v>
+        <v>14.182088262252</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.40036990554762</v>
+        <v>16.02266570239525</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.005878455508171</v>
+        <v>4.374630398427191</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.233918753315907</v>
+        <v>7.4537772090098</v>
       </c>
       <c r="E9">
-        <v>12.62935881708386</v>
+        <v>10.48140748261302</v>
       </c>
       <c r="F9">
-        <v>49.97752323883176</v>
+        <v>41.98011511419422</v>
       </c>
       <c r="G9">
-        <v>2.052301601422523</v>
+        <v>3.677485570255045</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.800805639402</v>
+        <v>25.92832844622258</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.46553332759419</v>
+        <v>14.93233898854605</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.39454764506635</v>
+        <v>16.542325813829</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.166416612659924</v>
+        <v>4.482823579921749</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.365503604602633</v>
+        <v>7.487198259808451</v>
       </c>
       <c r="E10">
-        <v>13.85935415836022</v>
+        <v>10.77635915015993</v>
       </c>
       <c r="F10">
-        <v>54.0199162564566</v>
+        <v>43.12246824018072</v>
       </c>
       <c r="G10">
-        <v>2.02983393009398</v>
+        <v>3.670945312421828</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.89961279079134</v>
+        <v>26.20297544750568</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.63664417509531</v>
+        <v>15.48588394331281</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.44568894923408</v>
+        <v>16.93938246305247</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.233785393530997</v>
+        <v>4.529826173890804</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.42935072064036</v>
+        <v>7.502813616822031</v>
       </c>
       <c r="E11">
-        <v>14.43922629579179</v>
+        <v>10.91097476151062</v>
       </c>
       <c r="F11">
-        <v>55.84036499079266</v>
+        <v>43.64153608651222</v>
       </c>
       <c r="G11">
-        <v>2.019569463181739</v>
+        <v>3.668101552080046</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.40709188864317</v>
+        <v>26.32939008141807</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.59435592934893</v>
+        <v>15.73685197295095</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.35125010199068</v>
+        <v>17.1225415553793</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.258427027226966</v>
+        <v>4.54730186266878</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.454180974033704</v>
+        <v>7.508785745978829</v>
       </c>
       <c r="E12">
-        <v>14.65676001121506</v>
+        <v>10.96196709471085</v>
       </c>
       <c r="F12">
-        <v>56.52760175211247</v>
+        <v>43.8378440009546</v>
       </c>
       <c r="G12">
-        <v>2.015667531411748</v>
+        <v>3.667043448837222</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.6005178796077</v>
+        <v>26.37745570515941</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.95319865768702</v>
+        <v>15.83165958490848</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.69067264558315</v>
+        <v>17.19219791804348</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.253159646469429</v>
+        <v>4.543552603887667</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.448802900089784</v>
+        <v>7.507496925687778</v>
       </c>
       <c r="E13">
-        <v>14.60999605132386</v>
+        <v>10.95098499225233</v>
       </c>
       <c r="F13">
-        <v>56.37967699297503</v>
+        <v>43.79557937354983</v>
       </c>
       <c r="G13">
-        <v>2.016508703731026</v>
+        <v>3.667270497750483</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.55880128319115</v>
+        <v>26.36709551237139</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.87607692203658</v>
+        <v>15.8112528790794</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.61771914941774</v>
+        <v>17.17718397522838</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.235830445999357</v>
+        <v>4.531270411577198</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.4313799378923</v>
+        <v>7.503303768391241</v>
       </c>
       <c r="E14">
-        <v>14.45716210490048</v>
+        <v>10.91516986904433</v>
       </c>
       <c r="F14">
-        <v>55.89694324481208</v>
+        <v>43.65769243848472</v>
       </c>
       <c r="G14">
-        <v>2.019248804600803</v>
+        <v>3.668014125932573</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.42297893530554</v>
+        <v>26.33334065825652</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.62395169489864</v>
+        <v>15.74465702609883</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.37924170592523</v>
+        <v>17.12826663364729</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.225100804812842</v>
+        <v>4.523704995466293</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.420795450391783</v>
+        <v>7.500743002928732</v>
       </c>
       <c r="E15">
-        <v>14.36328969131652</v>
+        <v>10.8932328239831</v>
       </c>
       <c r="F15">
-        <v>55.60099702146006</v>
+        <v>43.57319506383462</v>
       </c>
       <c r="G15">
-        <v>2.020924958941538</v>
+        <v>3.668472059740798</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.33995274403854</v>
+        <v>26.31268973140165</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.46903561298441</v>
+        <v>15.70383229669987</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.23272737362228</v>
+        <v>17.09834018863449</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.16189542232968</v>
+        <v>4.479706871558678</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.361417784877527</v>
+        <v>7.486186024495886</v>
       </c>
       <c r="E16">
-        <v>13.82115335063035</v>
+        <v>10.76756651987789</v>
       </c>
       <c r="F16">
-        <v>53.90061453047865</v>
+        <v>43.0885196451842</v>
       </c>
       <c r="G16">
-        <v>2.030503143834839</v>
+        <v>3.671133792279203</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.86661372575117</v>
+        <v>26.19474220745777</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.57349266212215</v>
+        <v>15.46945632451265</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.38599267508565</v>
+        <v>16.9274579026789</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.121633895531607</v>
+        <v>4.452144697274973</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.326065508767882</v>
+        <v>7.477361105415559</v>
       </c>
       <c r="E17">
-        <v>13.48457474890114</v>
+        <v>10.69055330669858</v>
       </c>
       <c r="F17">
-        <v>52.85306769962705</v>
+        <v>42.79091488470991</v>
       </c>
       <c r="G17">
-        <v>2.036362071707743</v>
+        <v>3.672800247982212</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.57828664294689</v>
+        <v>26.12275131349507</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.01675946809504</v>
+        <v>15.3253802150002</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.85980867202281</v>
+        <v>16.82322907339194</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.097947402545327</v>
+        <v>4.436083429353372</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.306101817053415</v>
+        <v>7.472324043214813</v>
       </c>
       <c r="E18">
-        <v>13.289419986483</v>
+        <v>10.64630156089595</v>
       </c>
       <c r="F18">
-        <v>52.24876573821307</v>
+        <v>42.61969423322713</v>
       </c>
       <c r="G18">
-        <v>2.039728445065429</v>
+        <v>3.673771128538768</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.41315430760768</v>
+        <v>26.08148407692434</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.69369054673674</v>
+        <v>15.2424382252398</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.55454033206284</v>
+        <v>16.7635220813009</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.089838256790334</v>
+        <v>4.430609743421856</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.299403792524921</v>
+        <v>7.470625252237014</v>
       </c>
       <c r="E19">
-        <v>13.22306684918901</v>
+        <v>10.6313277282481</v>
       </c>
       <c r="F19">
-        <v>52.04384094941994</v>
+        <v>42.56171906401848</v>
       </c>
       <c r="G19">
-        <v>2.040867878040434</v>
+        <v>3.674101982231339</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.35736050018173</v>
+        <v>26.06753626237347</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.58380180582192</v>
+        <v>15.21434628664976</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.45071857075434</v>
+        <v>16.74335004037717</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.12597494457136</v>
+        <v>4.455100324112136</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.329789991912225</v>
+        <v>7.478296519683127</v>
       </c>
       <c r="E20">
-        <v>13.52056388964837</v>
+        <v>10.69874726317606</v>
       </c>
       <c r="F20">
-        <v>52.96476199371316</v>
+        <v>42.82260142834065</v>
       </c>
       <c r="G20">
-        <v>2.035738802403809</v>
+        <v>3.672621570681729</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.60890551447533</v>
+        <v>26.13040049793779</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.07631643986693</v>
+        <v>15.34072573812387</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.9160900204891</v>
+        <v>16.83429977944692</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.240944529455523</v>
+        <v>4.534886795313654</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.436479072173201</v>
+        <v>7.504533803709509</v>
       </c>
       <c r="E21">
-        <v>14.50210612318071</v>
+        <v>10.92568956422875</v>
       </c>
       <c r="F21">
-        <v>56.03878634532838</v>
+        <v>43.69820130869124</v>
       </c>
       <c r="G21">
-        <v>2.018444454290127</v>
+        <v>3.667795196037011</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.46283769586277</v>
+        <v>26.34325012014417</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.69810648279528</v>
+        <v>15.76422487072891</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.44937907736341</v>
+        <v>17.14262728336261</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.310984164380051</v>
+        <v>4.585146258233221</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.510058141746884</v>
+        <v>7.522024697654094</v>
       </c>
       <c r="E22">
-        <v>15.13182484746329</v>
+        <v>11.07408379059963</v>
       </c>
       <c r="F22">
-        <v>58.03583874642148</v>
+        <v>44.26891524455863</v>
       </c>
       <c r="G22">
-        <v>2.00704900480721</v>
+        <v>3.664750208383965</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.02835573908394</v>
+        <v>26.48348880973385</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.73604546715606</v>
+        <v>16.03962850103606</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.43137894916622</v>
+        <v>17.3458436940227</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.274089757115904</v>
+        <v>4.558495814976717</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.470405401260121</v>
+        <v>7.512658184306531</v>
       </c>
       <c r="E23">
-        <v>14.7966948390119</v>
+        <v>10.99489138496955</v>
       </c>
       <c r="F23">
-        <v>56.97084185078194</v>
+        <v>43.96450911536405</v>
       </c>
       <c r="G23">
-        <v>2.013142715961588</v>
+        <v>3.666365416132831</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.72578324968936</v>
+        <v>26.40854325781342</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.18391002193177</v>
+        <v>15.892800345391</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.90893261662037</v>
+        <v>17.23724895223557</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.124014032989919</v>
+        <v>4.453764755806062</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.328105035087114</v>
+        <v>7.477873505176742</v>
       </c>
       <c r="E24">
-        <v>13.50429836464733</v>
+        <v>10.69504269656576</v>
       </c>
       <c r="F24">
-        <v>52.91427143599596</v>
+        <v>42.80827631462219</v>
       </c>
       <c r="G24">
-        <v>2.036020588058046</v>
+        <v>3.672702310769817</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.59506076932353</v>
+        <v>26.12694192257402</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.04940009889001</v>
+        <v>15.33378836375698</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.89065384767569</v>
+        <v>16.8292940367828</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.942071183658001</v>
+        <v>4.332856070333254</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.188535370508454</v>
+        <v>7.441836348881807</v>
       </c>
       <c r="E25">
-        <v>12.20216435151867</v>
+        <v>10.37349711007585</v>
       </c>
       <c r="F25">
-        <v>48.47011852273462</v>
+        <v>41.56003177063429</v>
       </c>
       <c r="G25">
-        <v>2.060587370280613</v>
+        <v>3.680011521375251</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.40211049080318</v>
+        <v>25.82860577686017</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.63661700791004</v>
+        <v>14.72848804288949</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.61208746853325</v>
+        <v>16.39879780703253</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.237178492551396</v>
+        <v>4.79258088230541</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.416578437565548</v>
+        <v>6.095328994591286</v>
       </c>
       <c r="E2">
-        <v>10.14009417437717</v>
+        <v>11.2512297784077</v>
       </c>
       <c r="F2">
-        <v>40.64615495779413</v>
+        <v>45.12876210751384</v>
       </c>
       <c r="G2">
-        <v>3.685806719290623</v>
+        <v>2.078845235483469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.61414345103336</v>
+        <v>23.54271269747681</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.28495389079682</v>
+        <v>18.75015317850255</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.0924152573312</v>
+        <v>17.83275084252739</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.168288532743712</v>
+        <v>4.682349758870292</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.400255215415634</v>
+        <v>6.037125694477035</v>
       </c>
       <c r="E3">
-        <v>9.984895581274426</v>
+        <v>10.59026300079937</v>
       </c>
       <c r="F3">
-        <v>40.03323973719511</v>
+        <v>42.82116316097271</v>
       </c>
       <c r="G3">
-        <v>3.689995067957691</v>
+        <v>2.091432204340011</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.47230243231675</v>
+        <v>22.97097748210226</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.98794304434639</v>
+        <v>17.39685264408375</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.89257095372307</v>
+        <v>16.55756362764982</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.124031337052815</v>
+        <v>4.610506364314237</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.390623555279588</v>
+        <v>6.003549693904143</v>
       </c>
       <c r="E4">
-        <v>9.891372203056402</v>
+        <v>10.17649089111248</v>
       </c>
       <c r="F4">
-        <v>39.66115592446533</v>
+        <v>41.38446115250518</v>
       </c>
       <c r="G4">
-        <v>3.692696389444505</v>
+        <v>2.099296260038496</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.38702023837573</v>
+        <v>22.62500410886518</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.80812069075922</v>
+        <v>16.52721863977716</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.77409617897681</v>
+        <v>15.73872152643733</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.105510053816168</v>
+        <v>4.580218326552362</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.386796758811228</v>
+        <v>5.990371695965658</v>
       </c>
       <c r="E5">
-        <v>9.853750431163027</v>
+        <v>10.00596155327497</v>
       </c>
       <c r="F5">
-        <v>39.51076047170724</v>
+        <v>40.79438326338119</v>
       </c>
       <c r="G5">
-        <v>3.693829940469093</v>
+        <v>2.102539051401559</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.35273403173654</v>
+        <v>22.48528007889605</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73560085840645</v>
+        <v>16.16286233798129</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.72693719770711</v>
+        <v>15.39579210359422</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.102405442583064</v>
+        <v>4.575128961349752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.386167247791141</v>
+        <v>5.988212884670373</v>
       </c>
       <c r="E6">
-        <v>9.847534236354328</v>
+        <v>9.977532968470438</v>
       </c>
       <c r="F6">
-        <v>39.48586654257959</v>
+        <v>40.69613646569469</v>
       </c>
       <c r="G6">
-        <v>3.694020147218499</v>
+        <v>2.103079927732308</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.3470693762988</v>
+        <v>22.46215508136181</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.72360835137514</v>
+        <v>16.10175218315586</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.71917576054591</v>
+        <v>15.33828440234684</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.123783512151402</v>
+        <v>4.61010193781632</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.39057154843237</v>
+        <v>6.003369977524871</v>
       </c>
       <c r="E7">
-        <v>9.890862781063463</v>
+        <v>10.17419868064179</v>
       </c>
       <c r="F7">
-        <v>39.65912243775817</v>
+        <v>41.3765212256587</v>
       </c>
       <c r="G7">
-        <v>3.69271154416592</v>
+        <v>2.099339834039321</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.38655593651728</v>
+        <v>22.6231146386003</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.80713943064541</v>
+        <v>16.52234549084654</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.77345556696256</v>
+        <v>15.73413437374496</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.213835399396049</v>
+        <v>4.755458049734708</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.410869021174891</v>
+        <v>6.074787596999006</v>
       </c>
       <c r="E8">
-        <v>10.08624172049441</v>
+        <v>11.02501024797399</v>
       </c>
       <c r="F8">
-        <v>40.43403859555357</v>
+        <v>44.33739878326357</v>
       </c>
       <c r="G8">
-        <v>3.68722403393939</v>
+        <v>2.083159624340072</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.56486877769344</v>
+        <v>23.34451384544978</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.182088262252</v>
+        <v>18.29141608300975</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.02266570239525</v>
+        <v>17.40036990554764</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.374630398427191</v>
+        <v>5.005878455508119</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.4537772090098</v>
+        <v>6.233918753315923</v>
       </c>
       <c r="E9">
-        <v>10.48140748261302</v>
+        <v>12.62935881708384</v>
       </c>
       <c r="F9">
-        <v>41.98011511419422</v>
+        <v>49.97752323883176</v>
       </c>
       <c r="G9">
-        <v>3.677485570255045</v>
+        <v>2.052301601422785</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.92832844622258</v>
+        <v>24.80080563940209</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.93233898854605</v>
+        <v>21.46553332759417</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.542325813829</v>
+        <v>20.39454764506632</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.482823579921749</v>
+        <v>5.166416612659913</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.487198259808451</v>
+        <v>6.365503604602775</v>
       </c>
       <c r="E10">
-        <v>10.77635915015993</v>
+        <v>13.85935415836019</v>
       </c>
       <c r="F10">
-        <v>43.12246824018072</v>
+        <v>54.01991625645665</v>
       </c>
       <c r="G10">
-        <v>3.670945312421828</v>
+        <v>2.029833930093978</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.20297544750568</v>
+        <v>25.89961279079133</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.48588394331281</v>
+        <v>23.63664417509534</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.93938246305247</v>
+        <v>22.44568894923407</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.529826173890804</v>
+        <v>5.233785393530869</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.502813616822031</v>
+        <v>6.429350720640331</v>
       </c>
       <c r="E11">
-        <v>10.91097476151062</v>
+        <v>14.43922629579179</v>
       </c>
       <c r="F11">
-        <v>43.64153608651222</v>
+        <v>55.8403649907928</v>
       </c>
       <c r="G11">
-        <v>3.668101552080046</v>
+        <v>2.019569463182005</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.32939008141807</v>
+        <v>26.40709188864323</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.73685197295095</v>
+        <v>24.59435592934895</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.1225415553793</v>
+        <v>23.35125010199071</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.54730186266878</v>
+        <v>5.258427027226841</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.508785745978829</v>
+        <v>6.454180974033783</v>
       </c>
       <c r="E12">
-        <v>10.96196709471085</v>
+        <v>14.65676001121507</v>
       </c>
       <c r="F12">
-        <v>43.8378440009546</v>
+        <v>56.52760175211257</v>
       </c>
       <c r="G12">
-        <v>3.667043448837222</v>
+        <v>2.015667531411742</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.37745570515941</v>
+        <v>26.60051787960771</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.83165958490848</v>
+        <v>24.95319865768704</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.19219791804348</v>
+        <v>23.69067264558317</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.543552603887667</v>
+        <v>5.253159646469292</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.507496925687778</v>
+        <v>6.448802900089889</v>
       </c>
       <c r="E13">
-        <v>10.95098499225233</v>
+        <v>14.60999605132382</v>
       </c>
       <c r="F13">
-        <v>43.79557937354983</v>
+        <v>56.37967699297519</v>
       </c>
       <c r="G13">
-        <v>3.667270497750483</v>
+        <v>2.016508703731029</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.36709551237139</v>
+        <v>26.55880128319123</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.8112528790794</v>
+        <v>24.87607692203667</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.17718397522838</v>
+        <v>23.61771914941779</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.531270411577198</v>
+        <v>5.235830445999231</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.503303768391241</v>
+        <v>6.431379937892339</v>
       </c>
       <c r="E14">
-        <v>10.91516986904433</v>
+        <v>14.45716210490052</v>
       </c>
       <c r="F14">
-        <v>43.65769243848472</v>
+        <v>55.89694324481208</v>
       </c>
       <c r="G14">
-        <v>3.668014125932573</v>
+        <v>2.019248804600803</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.33334065825652</v>
+        <v>26.42297893530554</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.74465702609883</v>
+        <v>24.62395169489867</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.12826663364729</v>
+        <v>23.37924170592525</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.523704995466293</v>
+        <v>5.225100804812725</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.500743002928732</v>
+        <v>6.420795450391707</v>
       </c>
       <c r="E15">
-        <v>10.8932328239831</v>
+        <v>14.36328969131653</v>
       </c>
       <c r="F15">
-        <v>43.57319506383462</v>
+        <v>55.60099702146013</v>
       </c>
       <c r="G15">
-        <v>3.668472059740798</v>
+        <v>2.020924958941268</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.31268973140165</v>
+        <v>26.33995274403854</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.70383229669987</v>
+        <v>24.46903561298452</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.09834018863449</v>
+        <v>23.23272737362235</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.479706871558678</v>
+        <v>5.161895422329736</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.486186024495886</v>
+        <v>6.361417784877463</v>
       </c>
       <c r="E16">
-        <v>10.76756651987789</v>
+        <v>13.82115335063033</v>
       </c>
       <c r="F16">
-        <v>43.0885196451842</v>
+        <v>53.90061453047865</v>
       </c>
       <c r="G16">
-        <v>3.671133792279203</v>
+        <v>2.03050314383471</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.19474220745777</v>
+        <v>25.86661372575114</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.46945632451265</v>
+        <v>23.57349266212212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.9274579026789</v>
+        <v>22.38599267508561</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.452144697274973</v>
+        <v>5.12163389553142</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.477361105415559</v>
+        <v>6.326065508767844</v>
       </c>
       <c r="E17">
-        <v>10.69055330669858</v>
+        <v>13.48457474890102</v>
       </c>
       <c r="F17">
-        <v>42.79091488470991</v>
+        <v>52.85306769962712</v>
       </c>
       <c r="G17">
-        <v>3.672800247982212</v>
+        <v>2.036362071708</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.12275131349507</v>
+        <v>25.57828664294695</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.3253802150002</v>
+        <v>23.01675946809517</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.82322907339194</v>
+        <v>21.85980867202282</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.436083429353372</v>
+        <v>5.097947402545273</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.472324043214813</v>
+        <v>6.306101817053415</v>
       </c>
       <c r="E18">
-        <v>10.64630156089595</v>
+        <v>13.28941998648298</v>
       </c>
       <c r="F18">
-        <v>42.61969423322713</v>
+        <v>52.24876573821303</v>
       </c>
       <c r="G18">
-        <v>3.673771128538768</v>
+        <v>2.039728445065426</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.08148407692434</v>
+        <v>25.4131543076077</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.2424382252398</v>
+        <v>22.6936905467368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.7635220813009</v>
+        <v>21.55454033206286</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.430609743421856</v>
+        <v>5.089838256790262</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.470625252237014</v>
+        <v>6.299403792524934</v>
       </c>
       <c r="E19">
-        <v>10.6313277282481</v>
+        <v>13.22306684918903</v>
       </c>
       <c r="F19">
-        <v>42.56171906401848</v>
+        <v>52.04384094941999</v>
       </c>
       <c r="G19">
-        <v>3.674101982231339</v>
+        <v>2.040867878040698</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.06753626237347</v>
+        <v>25.35736050018172</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.21434628664976</v>
+        <v>22.58380180582199</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.74335004037717</v>
+        <v>21.45071857075441</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.455100324112136</v>
+        <v>5.125974944571231</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.478296519683127</v>
+        <v>6.329789991912278</v>
       </c>
       <c r="E20">
-        <v>10.69874726317606</v>
+        <v>13.52056388964835</v>
       </c>
       <c r="F20">
-        <v>42.82260142834065</v>
+        <v>52.96476199371325</v>
       </c>
       <c r="G20">
-        <v>3.672621570681729</v>
+        <v>2.035738802404074</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.13040049793779</v>
+        <v>25.6089055144753</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.34072573812387</v>
+        <v>23.07631643986696</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.83429977944692</v>
+        <v>21.91609002048915</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.534886795313654</v>
+        <v>5.240944529455397</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.504533803709509</v>
+        <v>6.436479072173136</v>
       </c>
       <c r="E21">
-        <v>10.92568956422875</v>
+        <v>14.50210612318069</v>
       </c>
       <c r="F21">
-        <v>43.69820130869124</v>
+        <v>56.0387863453285</v>
       </c>
       <c r="G21">
-        <v>3.667795196037011</v>
+        <v>2.018444454290002</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.34325012014417</v>
+        <v>26.46283769586282</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.76422487072891</v>
+        <v>24.6981064827954</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.14262728336261</v>
+        <v>23.44937907736345</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.585146258233221</v>
+        <v>5.310984164379943</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.522024697654094</v>
+        <v>6.510058141746909</v>
       </c>
       <c r="E22">
-        <v>11.07408379059963</v>
+        <v>15.13182484746324</v>
       </c>
       <c r="F22">
-        <v>44.26891524455863</v>
+        <v>58.03583874642134</v>
       </c>
       <c r="G22">
-        <v>3.664750208383965</v>
+        <v>2.00704900480695</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.48348880973385</v>
+        <v>27.02835573908391</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.03962850103606</v>
+        <v>25.73604546715607</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.3458436940227</v>
+        <v>24.43137894916619</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.558495814976717</v>
+        <v>5.274089757115853</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.512658184306531</v>
+        <v>6.470405401260086</v>
       </c>
       <c r="E23">
-        <v>10.99489138496955</v>
+        <v>14.79669483901192</v>
       </c>
       <c r="F23">
-        <v>43.96450911536405</v>
+        <v>56.97084185078191</v>
       </c>
       <c r="G23">
-        <v>3.666365416132831</v>
+        <v>2.013142715961711</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.40854325781342</v>
+        <v>26.7257832496893</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.892800345391</v>
+        <v>25.18391002193172</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.23724895223557</v>
+        <v>23.90893261662035</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.453764755806062</v>
+        <v>5.124014032989729</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.477873505176742</v>
+        <v>6.328105035087129</v>
       </c>
       <c r="E24">
-        <v>10.69504269656576</v>
+        <v>13.50429836464732</v>
       </c>
       <c r="F24">
-        <v>42.80827631462219</v>
+        <v>52.91427143599597</v>
       </c>
       <c r="G24">
-        <v>3.672702310769817</v>
+        <v>2.036020588057788</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.12694192257402</v>
+        <v>25.59506076932362</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.33378836375698</v>
+        <v>23.04940009889003</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.8292940367828</v>
+        <v>21.8906538476757</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.332856070333254</v>
+        <v>4.942071183657878</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.441836348881807</v>
+        <v>6.188535370508442</v>
       </c>
       <c r="E25">
-        <v>10.37349711007585</v>
+        <v>12.20216435151866</v>
       </c>
       <c r="F25">
-        <v>41.56003177063429</v>
+        <v>48.47011852273458</v>
       </c>
       <c r="G25">
-        <v>3.680011521375251</v>
+        <v>2.060587370280743</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.82860577686017</v>
+        <v>24.4021104908032</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.72848804288949</v>
+        <v>20.63661700791008</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.39879780703253</v>
+        <v>19.61208746853326</v>
       </c>
       <c r="N25">
         <v>0</v>
